--- a/wxdgaming.game.basic/src/main/cfg/buff.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_buff" sheetId="4" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>list&lt;int&gt;</t>
   </si>
   <si>
-    <t>wxdgaming.boot2.core.lang.ConfigString</t>
+    <t>wxdgaming.spring.boot.core.lang.ConfigString</t>
   </si>
   <si>
     <t>主键id 唯一id</t>
@@ -949,13 +949,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1219,7 +1212,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
